--- a/Files/college_info/all_colleges/OUCT/OUCT_placements.xlsx
+++ b/Files/college_info/all_colleges/OUCT/OUCT_placements.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mugdha\Desktop\python project\self\OUCT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammad Arshad Ali\Dropbox\Programming\KMIT\Projects\group\python project on dataset (1st year 2nd sem)\files\all_colleges\OUCT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0106C8-53B7-457B-B467-A198FAC1B892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5C5148-9DFD-418E-B614-7BDF6A90A63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table 1'!$A$2:$D$9</definedName>
-  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -129,7 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -152,28 +149,9 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -222,32 +200,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -256,11 +219,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -666,147 +635,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="2" max="3" width="26.6640625" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="0.95" customHeight="1"/>
+    <row r="1" spans="1:5" ht="33.6" customHeight="1">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="2" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A3" s="6">
+    </row>
+    <row r="4" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="33" customHeight="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A4" s="6">
+    </row>
+    <row r="7" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12">
+      <c r="C7" s="3"/>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="33" customHeight="1">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A5" s="6">
-        <v>6</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A6" s="6">
-        <v>2</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="33" customHeight="1">
-      <c r="A7" s="6">
-        <v>3</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9">
+      <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A8" s="6">
-        <v>4</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9">
+      <c r="C8" s="6"/>
+      <c r="D8" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="33" customHeight="1">
-      <c r="A9" s="6">
-        <v>7</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12">
-        <v>1</v>
-      </c>
+    <row r="9" spans="1:5" ht="16.5" customHeight="1">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5" ht="16.5" customHeight="1">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" customHeight="1">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" ht="16.5" customHeight="1">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D9" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D9">
-      <sortCondition descending="1" ref="D2:D9"/>
-    </sortState>
-  </autoFilter>
-  <mergeCells count="3">
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-  </mergeCells>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A12">
+    <sortCondition ref="A1:A12"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
